--- a/FA150_TestData_CalculateDepreciationandPeriodClose_21C.xlsx
+++ b/FA150_TestData_CalculateDepreciationandPeriodClose_21C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Fixed Asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA64198E-6F46-4F0A-B8A8-3A984D2CD04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3035FD7D-8AAB-4059-89AD-9E18474CA236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>UserName</t>
   </si>
@@ -35,15 +35,6 @@
   </si>
   <si>
     <t>URL</t>
-  </si>
-  <si>
-    <t>Oracle1234</t>
-  </si>
-  <si>
-    <t>IBM_IMPLEMENTATION_USER</t>
-  </si>
-  <si>
-    <t>https://edrx.fa.us2.oraclecloud.com</t>
   </si>
   <si>
     <t>LowWait</t>
@@ -511,43 +502,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="J2:L2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="8.7265625" style="3"/>
-    <col min="8" max="8" width="16.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="44.1796875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.81640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.54296875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="7" width="8.77734375" style="3"/>
+    <col min="8" max="8" width="16.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="44.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.77734375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.5546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="H1" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="I1" s="10"/>
       <c r="J1" s="2" t="s">
@@ -585,15 +578,9 @@
       <c r="H2" s="3">
         <v>120</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -607,12 +594,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
     </row>
   </sheetData>

--- a/FA150_TestData_CalculateDepreciationandPeriodClose_21C.xlsx
+++ b/FA150_TestData_CalculateDepreciationandPeriodClose_21C.xlsx
@@ -1,118 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Fixed Asset\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3035FD7D-8AAB-4059-89AD-9E18474CA236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
-    <sheet name="Output_Value" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Input_Value" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Output_Value" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>LowWait</t>
-  </si>
-  <si>
-    <t>MediumWait</t>
-  </si>
-  <si>
-    <t>HighWait</t>
-  </si>
-  <si>
-    <t>HighestWait</t>
-  </si>
-  <si>
-    <t>LowExplicitWait</t>
-  </si>
-  <si>
-    <t>MediumExplicitWait</t>
-  </si>
-  <si>
-    <t>LongExplicitWait</t>
-  </si>
-  <si>
-    <t>HighestExplicitWait</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
+  </numFmts>
+  <fonts count="9">
+    <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="10"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="6">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -166,41 +137,89 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Normal 67" xfId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>19</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <to>
+      <col>19</col>
+      <colOff>50800</colOff>
+      <row>1</row>
+      <rowOff>50800</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="_FOpt1:_FOr1:0:_FONSr2:0:_FOTsr1:0:pt1:panel:result:98:spc1"/>
+        <cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="21094700" y="165100"/>
+          <a:ext cx="50800" cy="50800"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,108 +518,275 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="J2:L2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="7" width="8.77734375" style="3"/>
-    <col min="8" max="8" width="16.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.77734375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="44.21875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.77734375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.5546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="8.77734375" style="3"/>
+    <col width="8.81640625" customWidth="1" style="3" min="1" max="6"/>
+    <col width="25.1796875" customWidth="1" style="3" min="7" max="7"/>
+    <col width="16.81640625" bestFit="1" customWidth="1" style="3" min="8" max="8"/>
+    <col width="16.81640625" customWidth="1" style="3" min="9" max="10"/>
+    <col width="19.26953125" customWidth="1" style="3" min="11" max="20"/>
+    <col collapsed="1" width="44.1796875" bestFit="1" customWidth="1" style="3" min="21" max="21"/>
+    <col collapsed="1" width="26.81640625" bestFit="1" customWidth="1" style="3" min="22" max="22"/>
+    <col collapsed="1" width="16.54296875" bestFit="1" customWidth="1" style="3" min="23" max="23"/>
+    <col width="8.81640625" customWidth="1" style="3" min="24" max="25"/>
+    <col width="8.81640625" customWidth="1" style="3" min="26" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="13" customFormat="1" customHeight="1" s="11">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>LowWait</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>MediumWait</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="inlineStr">
+        <is>
+          <t>HighWait</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>HighestWait</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>LowExplicitWait</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="inlineStr">
+        <is>
+          <t>MediumExplicitWait</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>LongExplicitWait</t>
+        </is>
+      </c>
+      <c r="H1" s="10" t="inlineStr">
+        <is>
+          <t>HighestExplicitWait</t>
+        </is>
+      </c>
+      <c r="I1" s="10" t="n"/>
+      <c r="J1" s="12" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
+      <c r="K1" s="12" t="inlineStr">
+        <is>
+          <t>Currency</t>
+        </is>
+      </c>
+      <c r="L1" s="12" t="inlineStr">
+        <is>
+          <t>Fperiod</t>
+        </is>
+      </c>
+      <c r="M1" s="12" t="inlineStr">
+        <is>
+          <t>Tperiod</t>
+        </is>
+      </c>
+      <c r="N1" s="12" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="O1" s="12" t="inlineStr">
+        <is>
+          <t>Depdate</t>
+        </is>
+      </c>
+      <c r="P1" s="12" t="inlineStr">
+        <is>
+          <t>Book2</t>
+        </is>
+      </c>
+      <c r="Q1" s="12" t="inlineStr">
+        <is>
+          <t>EndD</t>
+        </is>
+      </c>
+      <c r="R1" s="12" t="inlineStr">
+        <is>
+          <t>Reportstyle</t>
+        </is>
+      </c>
+      <c r="S1" s="12" t="inlineStr">
+        <is>
+          <t>Name1</t>
+        </is>
+      </c>
+      <c r="T1" s="12" t="inlineStr">
+        <is>
+          <t>Name2</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>UserName</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B2" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="C2" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="D2" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="E2" s="3">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3">
-        <v>30</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="G2" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>GNB BOOK_LIVRE</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>CAD - Canadian Dollar</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2024-01</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2024-01</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Reserve Detail Report</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>GNB BOOK_LIVRE</t>
+        </is>
+      </c>
+      <c r="Q2" s="14" t="inlineStr">
+        <is>
+          <t>2024-01-31</t>
+        </is>
+      </c>
+      <c r="R2" s="13" t="inlineStr">
+        <is>
+          <t>Detail</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Reserve Detail Report</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Create Accounting Execution Report</t>
+        </is>
+      </c>
+      <c r="U2" s="4" t="n"/>
+      <c r="V2" s="5" t="n"/>
+      <c r="W2" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col collapsed="1" width="10.453125" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Process1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Process2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>656533</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>656536</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
